--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="217">
   <si>
     <t>p14_nom</t>
   </si>
@@ -88,7 +88,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>Mejora de la gestión de adquisición predial alrededor de la área de influencia del metro.</t>
@@ -1025,13 +1028,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,13 +1110,16 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1134,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1149,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1169,13 +1175,16 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1193,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -1214,13 +1223,13 @@
         <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="S3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1234,13 +1243,16 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1261,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -1276,13 +1288,13 @@
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="S4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1296,13 +1308,16 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1323,13 +1338,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1338,13 +1353,13 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1358,13 +1373,16 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1382,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1403,13 +1421,13 @@
         <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P6" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="S6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1423,13 +1441,16 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1450,13 +1471,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1465,13 +1486,13 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1485,13 +1506,16 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1512,13 +1536,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M8">
         <v>12</v>
@@ -1527,13 +1551,13 @@
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P8" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1547,13 +1571,16 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1574,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M9">
         <v>13</v>
@@ -1589,13 +1616,13 @@
         <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P9" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1609,13 +1636,16 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1636,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M10">
         <v>13</v>
@@ -1651,13 +1681,13 @@
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P10" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1671,13 +1701,16 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1698,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M11">
         <v>14</v>
@@ -1713,13 +1746,13 @@
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P11" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="S11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1733,13 +1766,16 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1757,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M12">
         <v>17</v>
@@ -1778,13 +1814,13 @@
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P12" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1798,13 +1834,16 @@
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1825,13 +1864,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13">
         <v>18</v>
@@ -1840,13 +1879,13 @@
         <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P13" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="S13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1860,13 +1899,16 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1887,13 +1929,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14">
         <v>19</v>
@@ -1902,13 +1944,13 @@
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P14" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1922,13 +1964,16 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1949,13 +1994,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15">
         <v>19</v>
@@ -1964,13 +2009,13 @@
         <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P15" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1984,13 +2029,16 @@
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2008,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16">
         <v>21</v>
@@ -2029,13 +2077,13 @@
         <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2049,13 +2097,16 @@
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2076,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M17">
         <v>21</v>
@@ -2091,13 +2142,13 @@
         <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P17" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2111,13 +2162,16 @@
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2138,13 +2192,13 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M18">
         <v>22</v>
@@ -2153,13 +2207,13 @@
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P18" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2173,13 +2227,16 @@
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2200,13 +2257,13 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M19">
         <v>22</v>
@@ -2215,13 +2272,13 @@
         <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P19" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2235,13 +2292,16 @@
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2262,13 +2322,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M20">
         <v>23</v>
@@ -2277,13 +2337,13 @@
         <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2297,13 +2357,16 @@
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2324,13 +2387,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M21">
         <v>23</v>
@@ -2339,13 +2402,13 @@
         <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2359,13 +2422,16 @@
       <c r="Y21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2386,13 +2452,13 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M22">
         <v>23</v>
@@ -2401,13 +2467,13 @@
         <v>38</v>
       </c>
       <c r="O22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2421,13 +2487,16 @@
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2448,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M23">
         <v>23</v>
@@ -2463,13 +2532,13 @@
         <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2483,13 +2552,16 @@
       <c r="Y23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2510,13 +2582,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -2525,13 +2597,13 @@
         <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P24" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2545,13 +2617,16 @@
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2569,19 +2644,19 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2590,13 +2665,13 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2610,13 +2685,16 @@
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2637,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26">
         <v>26</v>
@@ -2652,13 +2730,13 @@
         <v>55</v>
       </c>
       <c r="O26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2672,13 +2750,16 @@
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2696,19 +2777,19 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M27">
         <v>27</v>
@@ -2717,13 +2798,13 @@
         <v>56</v>
       </c>
       <c r="O27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2737,13 +2818,16 @@
       <c r="Y27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2764,13 +2848,13 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M28">
         <v>28</v>
@@ -2779,13 +2863,13 @@
         <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2799,13 +2883,16 @@
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2826,13 +2913,13 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M29">
         <v>29</v>
@@ -2841,13 +2928,13 @@
         <v>58</v>
       </c>
       <c r="O29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P29" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2861,13 +2948,16 @@
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2888,13 +2978,13 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M30">
         <v>30</v>
@@ -2903,13 +2993,13 @@
         <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P30" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2923,13 +3013,16 @@
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2950,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M31">
         <v>30</v>
@@ -2965,13 +3058,13 @@
         <v>59</v>
       </c>
       <c r="O31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P31" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2985,13 +3078,16 @@
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3012,13 +3108,13 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -3027,13 +3123,13 @@
         <v>59</v>
       </c>
       <c r="O32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3047,13 +3143,16 @@
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3074,13 +3173,13 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M33">
         <v>32</v>
@@ -3089,13 +3188,13 @@
         <v>61</v>
       </c>
       <c r="O33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3109,13 +3208,16 @@
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3133,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M34">
         <v>33</v>
@@ -3154,13 +3256,13 @@
         <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P34" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3174,13 +3276,16 @@
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3198,19 +3303,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -3219,13 +3324,13 @@
         <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3239,13 +3344,16 @@
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3263,19 +3371,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M36">
         <v>33</v>
@@ -3284,13 +3392,13 @@
         <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3304,13 +3412,16 @@
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3331,13 +3442,13 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M37">
         <v>34</v>
@@ -3346,13 +3457,13 @@
         <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3366,13 +3477,16 @@
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3393,13 +3507,13 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -3408,13 +3522,13 @@
         <v>77</v>
       </c>
       <c r="O38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P38" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3428,13 +3542,16 @@
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3452,19 +3569,19 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -3473,13 +3590,13 @@
         <v>78</v>
       </c>
       <c r="O39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P39" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3493,13 +3610,16 @@
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3520,13 +3640,13 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -3535,13 +3655,13 @@
         <v>80</v>
       </c>
       <c r="O40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P40" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="S40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3555,13 +3675,16 @@
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3579,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -3600,13 +3723,13 @@
         <v>81</v>
       </c>
       <c r="O41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P41" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -3620,13 +3743,16 @@
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3647,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -3662,13 +3788,13 @@
         <v>82</v>
       </c>
       <c r="O42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P42" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -3682,13 +3808,16 @@
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3709,13 +3838,13 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M43">
         <v>42</v>
@@ -3724,13 +3853,13 @@
         <v>84</v>
       </c>
       <c r="O43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P43" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -3744,13 +3873,16 @@
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3771,13 +3903,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M44">
         <v>44</v>
@@ -3786,13 +3918,13 @@
         <v>87</v>
       </c>
       <c r="O44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P44" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3806,13 +3938,16 @@
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3830,19 +3965,19 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M45">
         <v>45</v>
@@ -3851,13 +3986,13 @@
         <v>88</v>
       </c>
       <c r="O45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P45" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -3871,13 +4006,16 @@
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3898,13 +4036,13 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M46">
         <v>45</v>
@@ -3913,13 +4051,13 @@
         <v>88</v>
       </c>
       <c r="O46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P46" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -3933,13 +4071,16 @@
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3960,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M47">
         <v>48</v>
@@ -3975,13 +4116,13 @@
         <v>92</v>
       </c>
       <c r="O47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P47" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="S47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -3995,13 +4136,16 @@
       <c r="Y47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4022,13 +4166,13 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M48">
         <v>49</v>
@@ -4037,13 +4181,13 @@
         <v>93</v>
       </c>
       <c r="O48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4057,13 +4201,16 @@
       <c r="Y48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4081,19 +4228,19 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M49">
         <v>51</v>
@@ -4102,13 +4249,13 @@
         <v>95</v>
       </c>
       <c r="O49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P49" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -4122,13 +4269,16 @@
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4149,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M50">
         <v>53</v>
@@ -4164,13 +4314,13 @@
         <v>98</v>
       </c>
       <c r="O50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P50" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4184,13 +4334,16 @@
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4211,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M51">
         <v>54</v>
@@ -4226,13 +4379,13 @@
         <v>99</v>
       </c>
       <c r="O51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P51" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -4246,13 +4399,16 @@
       <c r="Y51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4273,13 +4429,13 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M52">
         <v>54</v>
@@ -4288,13 +4444,13 @@
         <v>99</v>
       </c>
       <c r="O52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P52" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4308,13 +4464,16 @@
       <c r="Y52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4335,13 +4494,13 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M53">
         <v>55</v>
@@ -4350,13 +4509,13 @@
         <v>100</v>
       </c>
       <c r="O53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P53" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -4370,13 +4529,16 @@
       <c r="Y53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4397,13 +4559,13 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M54">
         <v>55</v>
@@ -4412,13 +4574,13 @@
         <v>100</v>
       </c>
       <c r="O54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P54" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -4432,13 +4594,16 @@
       <c r="Y54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4459,13 +4624,13 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M55">
         <v>55</v>
@@ -4474,13 +4639,13 @@
         <v>100</v>
       </c>
       <c r="O55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P55" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -4494,13 +4659,16 @@
       <c r="Y55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4521,13 +4689,13 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M56">
         <v>56</v>
@@ -4536,13 +4704,13 @@
         <v>101</v>
       </c>
       <c r="O56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P56" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -4556,13 +4724,16 @@
       <c r="Y56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4583,13 +4754,13 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M57">
         <v>56</v>
@@ -4598,13 +4769,13 @@
         <v>101</v>
       </c>
       <c r="O57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P57" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -4618,13 +4789,16 @@
       <c r="Y57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4645,13 +4819,13 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M58">
         <v>59</v>
@@ -4660,13 +4834,13 @@
         <v>104</v>
       </c>
       <c r="O58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P58" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -4680,13 +4854,16 @@
       <c r="Y58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4707,13 +4884,13 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M59">
         <v>64</v>
@@ -4722,13 +4899,13 @@
         <v>110</v>
       </c>
       <c r="O59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P59" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -4742,13 +4919,16 @@
       <c r="Y59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4769,13 +4949,13 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M60">
         <v>65</v>
@@ -4784,13 +4964,13 @@
         <v>111</v>
       </c>
       <c r="O60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P60" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="S60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -4804,13 +4984,16 @@
       <c r="Y60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4831,13 +5014,13 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M61">
         <v>68</v>
@@ -4846,13 +5029,13 @@
         <v>115</v>
       </c>
       <c r="O61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P61" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="S61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -4866,13 +5049,16 @@
       <c r="Y61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4890,19 +5076,19 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M62">
         <v>71</v>
@@ -4911,13 +5097,13 @@
         <v>119</v>
       </c>
       <c r="O62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P62" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="S62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -4929,6 +5115,9 @@
         <v>0</v>
       </c>
       <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="219">
   <si>
     <t>p14_nom</t>
   </si>
@@ -94,6 +94,9 @@
     <t>c4</t>
   </si>
   <si>
+    <t>nota_iniciativa</t>
+  </si>
+  <si>
     <t>Mejora de la gestión de adquisición predial alrededor de la área de influencia del metro.</t>
   </si>
   <si>
@@ -305,6 +308,9 @@
   </si>
   <si>
     <t>p14_act_3</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>Se creó la central de información para atender las necesidades de los usuarios, pacientes y familias, durante la pandemia COVID-19. Se habilitaron puesto de atención de lunes a sábado. Cobertura en tiempo y Talento humano para esta atención.  
@@ -1028,13 +1034,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,22 +1119,25 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1140,13 +1149,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1155,13 +1164,13 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1178,13 +1187,16 @@
       <c r="Z2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1195,26 +1207,26 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>98</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -1223,13 +1235,13 @@
         <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="S3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1246,19 +1258,22 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1273,13 +1288,13 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -1288,13 +1303,13 @@
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="S4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1311,22 +1326,25 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>98</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1338,13 +1356,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1353,13 +1371,13 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1376,43 +1394,46 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1421,13 +1442,13 @@
         <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P6" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="S6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1444,16 +1465,19 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1471,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1486,13 +1510,13 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1509,19 +1533,22 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1536,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M8">
         <v>12</v>
@@ -1551,13 +1578,13 @@
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1574,16 +1601,19 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1601,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M9">
         <v>13</v>
@@ -1616,13 +1646,13 @@
         <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P9" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1639,19 +1669,22 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1666,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M10">
         <v>13</v>
@@ -1681,13 +1714,13 @@
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P10" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1704,19 +1737,22 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1731,13 +1767,13 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M11">
         <v>14</v>
@@ -1746,13 +1782,13 @@
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P11" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="S11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1769,43 +1805,46 @@
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>98</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M12">
         <v>17</v>
@@ -1814,13 +1853,13 @@
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P12" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1837,16 +1876,19 @@
       <c r="Z12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1864,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M13">
         <v>18</v>
@@ -1879,13 +1921,13 @@
         <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="S13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1902,19 +1944,22 @@
       <c r="Z13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1929,13 +1974,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M14">
         <v>19</v>
@@ -1944,13 +1989,13 @@
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P14" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1967,19 +2012,22 @@
       <c r="Z14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>98</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1994,13 +2042,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15">
         <v>19</v>
@@ -2009,13 +2057,13 @@
         <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P15" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2032,43 +2080,46 @@
       <c r="Z15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>98</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M16">
         <v>21</v>
@@ -2077,13 +2128,13 @@
         <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P16" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2100,16 +2151,19 @@
       <c r="Z16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2127,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M17">
         <v>21</v>
@@ -2142,13 +2196,13 @@
         <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P17" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2165,19 +2219,22 @@
       <c r="Z17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="D18" t="s">
+        <v>98</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2192,13 +2249,13 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M18">
         <v>22</v>
@@ -2207,13 +2264,13 @@
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P18" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2230,16 +2287,19 @@
       <c r="Z18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2257,13 +2317,13 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M19">
         <v>22</v>
@@ -2272,13 +2332,13 @@
         <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P19" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2295,22 +2355,25 @@
       <c r="Z19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2322,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M20">
         <v>23</v>
@@ -2337,13 +2400,13 @@
         <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2360,22 +2423,25 @@
       <c r="Z20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2387,13 +2453,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M21">
         <v>23</v>
@@ -2402,13 +2468,13 @@
         <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2425,22 +2491,25 @@
       <c r="Z21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2452,13 +2521,13 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M22">
         <v>23</v>
@@ -2467,13 +2536,13 @@
         <v>38</v>
       </c>
       <c r="O22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2490,22 +2559,25 @@
       <c r="Z22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2517,13 +2589,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M23">
         <v>23</v>
@@ -2532,13 +2604,13 @@
         <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2555,22 +2627,25 @@
       <c r="Z23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2582,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -2597,13 +2672,13 @@
         <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P24" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2620,43 +2695,46 @@
       <c r="Z24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2665,13 +2743,13 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2688,19 +2766,22 @@
       <c r="Z25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="D26" t="s">
+        <v>98</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2715,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M26">
         <v>26</v>
@@ -2730,13 +2811,13 @@
         <v>55</v>
       </c>
       <c r="O26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2753,43 +2834,46 @@
       <c r="Z26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M27">
         <v>27</v>
@@ -2798,13 +2882,13 @@
         <v>56</v>
       </c>
       <c r="O27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2821,19 +2905,22 @@
       <c r="Z27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2848,13 +2935,13 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M28">
         <v>28</v>
@@ -2863,13 +2950,13 @@
         <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2886,22 +2973,25 @@
       <c r="Z28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>98</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2913,13 +3003,13 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M29">
         <v>29</v>
@@ -2928,13 +3018,13 @@
         <v>58</v>
       </c>
       <c r="O29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P29" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2951,22 +3041,25 @@
       <c r="Z29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2978,13 +3071,13 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M30">
         <v>30</v>
@@ -2993,13 +3086,13 @@
         <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P30" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3016,22 +3109,25 @@
       <c r="Z30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3043,13 +3139,13 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M31">
         <v>30</v>
@@ -3058,13 +3154,13 @@
         <v>59</v>
       </c>
       <c r="O31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P31" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3081,22 +3177,25 @@
       <c r="Z31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3108,13 +3207,13 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -3123,13 +3222,13 @@
         <v>59</v>
       </c>
       <c r="O32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3146,22 +3245,25 @@
       <c r="Z32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3173,13 +3275,13 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M33">
         <v>32</v>
@@ -3188,13 +3290,13 @@
         <v>61</v>
       </c>
       <c r="O33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3211,43 +3313,46 @@
       <c r="Z33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>98</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M34">
         <v>33</v>
@@ -3256,13 +3361,13 @@
         <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P34" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3279,43 +3384,46 @@
       <c r="Z34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -3324,13 +3432,13 @@
         <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3347,43 +3455,46 @@
       <c r="Z35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M36">
         <v>33</v>
@@ -3392,13 +3503,13 @@
         <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3415,22 +3526,25 @@
       <c r="Z36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>98</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3442,13 +3556,13 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M37">
         <v>34</v>
@@ -3457,13 +3571,13 @@
         <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3480,16 +3594,19 @@
       <c r="Z37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3507,13 +3624,13 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -3522,13 +3639,13 @@
         <v>77</v>
       </c>
       <c r="O38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P38" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3545,13 +3662,16 @@
       <c r="Z38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3562,26 +3682,26 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>1</v>
+      <c r="F39" t="s">
+        <v>98</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -3590,13 +3710,13 @@
         <v>78</v>
       </c>
       <c r="O39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P39" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3613,19 +3733,22 @@
       <c r="Z39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="D40" t="s">
+        <v>98</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3640,13 +3763,13 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -3655,13 +3778,13 @@
         <v>80</v>
       </c>
       <c r="O40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P40" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="S40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3678,43 +3801,46 @@
       <c r="Z40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -3723,13 +3849,13 @@
         <v>81</v>
       </c>
       <c r="O41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P41" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -3746,22 +3872,25 @@
       <c r="Z41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3773,13 +3902,13 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -3788,13 +3917,13 @@
         <v>82</v>
       </c>
       <c r="O42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P42" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -3811,22 +3940,25 @@
       <c r="Z42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3838,13 +3970,13 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M43">
         <v>42</v>
@@ -3853,13 +3985,13 @@
         <v>84</v>
       </c>
       <c r="O43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P43" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -3876,22 +4008,25 @@
       <c r="Z43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3903,13 +4038,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M44">
         <v>44</v>
@@ -3918,13 +4053,13 @@
         <v>87</v>
       </c>
       <c r="O44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P44" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3941,19 +4076,22 @@
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3965,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M45">
         <v>45</v>
@@ -3986,13 +4124,13 @@
         <v>88</v>
       </c>
       <c r="O45" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P45" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4009,22 +4147,25 @@
       <c r="Z45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4036,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M46">
         <v>45</v>
@@ -4051,13 +4192,13 @@
         <v>88</v>
       </c>
       <c r="O46" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P46" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4074,22 +4215,25 @@
       <c r="Z46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4101,13 +4245,13 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M47">
         <v>48</v>
@@ -4116,13 +4260,13 @@
         <v>92</v>
       </c>
       <c r="O47" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P47" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="S47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4139,16 +4283,19 @@
       <c r="Z47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4166,13 +4313,13 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M48">
         <v>49</v>
@@ -4181,13 +4328,13 @@
         <v>93</v>
       </c>
       <c r="O48" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4204,43 +4351,46 @@
       <c r="Z48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M49">
         <v>51</v>
@@ -4249,13 +4399,13 @@
         <v>95</v>
       </c>
       <c r="O49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P49" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -4272,19 +4422,22 @@
       <c r="Z49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
-        <v>1</v>
+      <c r="D50" t="s">
+        <v>98</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4299,13 +4452,13 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M50">
         <v>53</v>
@@ -4314,13 +4467,13 @@
         <v>98</v>
       </c>
       <c r="O50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P50" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S50" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4337,19 +4490,22 @@
       <c r="Z50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4364,13 +4520,13 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M51">
         <v>54</v>
@@ -4379,13 +4535,13 @@
         <v>99</v>
       </c>
       <c r="O51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P51" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -4402,19 +4558,22 @@
       <c r="Z51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4429,13 +4588,13 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M52">
         <v>54</v>
@@ -4444,13 +4603,13 @@
         <v>99</v>
       </c>
       <c r="O52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P52" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S52" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4467,22 +4626,25 @@
       <c r="Z52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53">
-        <v>1</v>
+      <c r="E53" t="s">
+        <v>98</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4494,13 +4656,13 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M53">
         <v>55</v>
@@ -4509,13 +4671,13 @@
         <v>100</v>
       </c>
       <c r="O53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P53" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -4532,22 +4694,25 @@
       <c r="Z53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54">
-        <v>1</v>
+      <c r="E54" t="s">
+        <v>98</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4559,13 +4724,13 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M54">
         <v>55</v>
@@ -4574,13 +4739,13 @@
         <v>100</v>
       </c>
       <c r="O54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P54" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -4597,13 +4762,16 @@
       <c r="Z54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4611,8 +4779,8 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55">
-        <v>1</v>
+      <c r="E55" t="s">
+        <v>98</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4624,13 +4792,13 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M55">
         <v>55</v>
@@ -4639,13 +4807,13 @@
         <v>100</v>
       </c>
       <c r="O55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P55" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -4662,16 +4830,19 @@
       <c r="Z55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4689,13 +4860,13 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M56">
         <v>56</v>
@@ -4704,13 +4875,13 @@
         <v>101</v>
       </c>
       <c r="O56" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P56" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -4727,16 +4898,19 @@
       <c r="Z56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -4754,13 +4928,13 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M57">
         <v>56</v>
@@ -4769,13 +4943,13 @@
         <v>101</v>
       </c>
       <c r="O57" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P57" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -4792,22 +4966,25 @@
       <c r="Z57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" t="s">
+        <v>98</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4819,13 +4996,13 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M58">
         <v>59</v>
@@ -4834,13 +5011,13 @@
         <v>104</v>
       </c>
       <c r="O58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P58" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -4857,13 +5034,16 @@
       <c r="Z58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4871,8 +5051,8 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59">
-        <v>1</v>
+      <c r="E59" t="s">
+        <v>98</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4884,13 +5064,13 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M59">
         <v>64</v>
@@ -4899,13 +5079,13 @@
         <v>110</v>
       </c>
       <c r="O59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P59" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -4922,19 +5102,22 @@
       <c r="Z59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60">
-        <v>1</v>
+      <c r="D60" t="s">
+        <v>98</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4949,13 +5132,13 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M60">
         <v>65</v>
@@ -4964,13 +5147,13 @@
         <v>111</v>
       </c>
       <c r="O60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P60" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="S60" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -4987,22 +5170,25 @@
       <c r="Z60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>98</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5014,13 +5200,13 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M61">
         <v>68</v>
@@ -5029,13 +5215,13 @@
         <v>115</v>
       </c>
       <c r="O61" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P61" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="S61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -5052,13 +5238,16 @@
       <c r="Z61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5069,26 +5258,26 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62">
-        <v>1</v>
+      <c r="F62" t="s">
+        <v>98</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M62">
         <v>71</v>
@@ -5097,13 +5286,13 @@
         <v>119</v>
       </c>
       <c r="O62" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P62" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="S62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -5118,6 +5307,9 @@
         <v>0</v>
       </c>
       <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="218">
   <si>
     <t>p14_nom</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>c3</t>
-  </si>
-  <si>
-    <t>s_i</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1037,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,19 +1113,13 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1149,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
         <v>110</v>
       </c>
-      <c r="J2" t="s">
-        <v>112</v>
-      </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1167,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1187,19 +1175,13 @@
       <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1217,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -1238,13 +1220,13 @@
         <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="S3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1258,19 +1240,13 @@
       <c r="Y3">
         <v>0</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1288,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -1306,13 +1282,13 @@
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="S4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1326,19 +1302,13 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1356,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1374,13 +1344,13 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1394,19 +1364,13 @@
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1424,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1445,13 +1409,13 @@
         <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P6" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="S6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1465,19 +1429,13 @@
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1495,16 +1453,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1513,13 +1471,13 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1533,19 +1491,13 @@
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1563,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M8">
         <v>12</v>
@@ -1581,13 +1533,13 @@
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P8" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1601,19 +1553,13 @@
       <c r="Y8">
         <v>0</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1631,16 +1577,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M9">
         <v>13</v>
@@ -1649,13 +1595,13 @@
         <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P9" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1669,19 +1615,13 @@
       <c r="Y9">
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1699,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M10">
         <v>13</v>
@@ -1717,13 +1657,13 @@
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P10" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1737,19 +1677,13 @@
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1767,16 +1701,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M11">
         <v>14</v>
@@ -1785,13 +1719,13 @@
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P11" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="S11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1805,19 +1739,13 @@
       <c r="Y11">
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1835,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M12">
         <v>17</v>
@@ -1856,13 +1784,13 @@
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P12" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1876,19 +1804,13 @@
       <c r="Y12">
         <v>0</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1906,16 +1828,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M13">
         <v>18</v>
@@ -1924,13 +1846,13 @@
         <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P13" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="S13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1944,19 +1866,13 @@
       <c r="Y13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1974,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M14">
         <v>19</v>
@@ -1992,13 +1908,13 @@
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P14" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2012,19 +1928,13 @@
       <c r="Y14">
         <v>0</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2042,16 +1952,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M15">
         <v>19</v>
@@ -2060,13 +1970,13 @@
         <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P15" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2080,19 +1990,13 @@
       <c r="Y15">
         <v>0</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2110,19 +2014,19 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M16">
         <v>21</v>
@@ -2131,13 +2035,13 @@
         <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P16" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2151,19 +2055,13 @@
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2181,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M17">
         <v>21</v>
@@ -2199,13 +2097,13 @@
         <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P17" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2219,19 +2117,13 @@
       <c r="Y17">
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2249,16 +2141,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M18">
         <v>22</v>
@@ -2267,13 +2159,13 @@
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P18" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2287,19 +2179,13 @@
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2317,16 +2203,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M19">
         <v>22</v>
@@ -2335,13 +2221,13 @@
         <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P19" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2355,19 +2241,13 @@
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2385,16 +2265,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M20">
         <v>23</v>
@@ -2403,13 +2283,13 @@
         <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2423,19 +2303,13 @@
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2453,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M21">
         <v>23</v>
@@ -2471,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2491,19 +2365,13 @@
       <c r="Y21">
         <v>0</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2521,16 +2389,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M22">
         <v>23</v>
@@ -2539,13 +2407,13 @@
         <v>38</v>
       </c>
       <c r="O22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2559,19 +2427,13 @@
       <c r="Y22">
         <v>0</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2589,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M23">
         <v>23</v>
@@ -2607,13 +2469,13 @@
         <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2627,19 +2489,13 @@
       <c r="Y23">
         <v>0</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2657,16 +2513,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -2675,13 +2531,13 @@
         <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P24" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2695,19 +2551,13 @@
       <c r="Y24">
         <v>0</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2725,19 +2575,19 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2746,13 +2596,13 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2766,19 +2616,13 @@
       <c r="Y25">
         <v>0</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2796,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M26">
         <v>26</v>
@@ -2814,13 +2658,13 @@
         <v>55</v>
       </c>
       <c r="O26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2834,19 +2678,13 @@
       <c r="Y26">
         <v>0</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2864,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M27">
         <v>27</v>
@@ -2885,13 +2723,13 @@
         <v>56</v>
       </c>
       <c r="O27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2905,19 +2743,13 @@
       <c r="Y27">
         <v>0</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2935,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M28">
         <v>28</v>
@@ -2953,13 +2785,13 @@
         <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2973,19 +2805,13 @@
       <c r="Y28">
         <v>0</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3003,16 +2829,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M29">
         <v>29</v>
@@ -3021,13 +2847,13 @@
         <v>58</v>
       </c>
       <c r="O29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P29" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3041,19 +2867,13 @@
       <c r="Y29">
         <v>0</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3071,16 +2891,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M30">
         <v>30</v>
@@ -3089,13 +2909,13 @@
         <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P30" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3109,19 +2929,13 @@
       <c r="Y30">
         <v>0</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3139,16 +2953,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M31">
         <v>30</v>
@@ -3157,13 +2971,13 @@
         <v>59</v>
       </c>
       <c r="O31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P31" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3177,19 +2991,13 @@
       <c r="Y31">
         <v>0</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3207,16 +3015,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -3225,13 +3033,13 @@
         <v>59</v>
       </c>
       <c r="O32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3245,19 +3053,13 @@
       <c r="Y32">
         <v>0</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3275,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M33">
         <v>32</v>
@@ -3293,13 +3095,13 @@
         <v>61</v>
       </c>
       <c r="O33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3313,19 +3115,13 @@
       <c r="Y33">
         <v>0</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3343,19 +3139,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M34">
         <v>33</v>
@@ -3364,13 +3160,13 @@
         <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P34" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3384,19 +3180,13 @@
       <c r="Y34">
         <v>0</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3414,19 +3204,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -3435,13 +3225,13 @@
         <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3455,19 +3245,13 @@
       <c r="Y35">
         <v>0</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3485,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M36">
         <v>33</v>
@@ -3506,13 +3290,13 @@
         <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3526,19 +3310,13 @@
       <c r="Y36">
         <v>0</v>
       </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3556,16 +3334,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M37">
         <v>34</v>
@@ -3574,13 +3352,13 @@
         <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3594,19 +3372,13 @@
       <c r="Y37">
         <v>0</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3624,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -3642,13 +3414,13 @@
         <v>77</v>
       </c>
       <c r="O38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P38" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3662,19 +3434,13 @@
       <c r="Y38">
         <v>0</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3692,19 +3458,19 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -3713,13 +3479,13 @@
         <v>78</v>
       </c>
       <c r="O39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P39" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3733,19 +3499,13 @@
       <c r="Y39">
         <v>0</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3763,16 +3523,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -3781,13 +3541,13 @@
         <v>80</v>
       </c>
       <c r="O40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P40" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="S40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3801,19 +3561,13 @@
       <c r="Y40">
         <v>0</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3831,19 +3585,19 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -3852,13 +3606,13 @@
         <v>81</v>
       </c>
       <c r="O41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P41" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -3872,19 +3626,13 @@
       <c r="Y41">
         <v>0</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3902,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -3920,13 +3668,13 @@
         <v>82</v>
       </c>
       <c r="O42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P42" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -3940,19 +3688,13 @@
       <c r="Y42">
         <v>0</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3970,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M43">
         <v>42</v>
@@ -3988,13 +3730,13 @@
         <v>84</v>
       </c>
       <c r="O43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P43" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4008,19 +3750,13 @@
       <c r="Y43">
         <v>0</v>
       </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4038,16 +3774,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M44">
         <v>44</v>
@@ -4056,13 +3792,13 @@
         <v>87</v>
       </c>
       <c r="O44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P44" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4076,19 +3812,13 @@
       <c r="Y44">
         <v>0</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4106,19 +3836,19 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M45">
         <v>45</v>
@@ -4127,13 +3857,13 @@
         <v>88</v>
       </c>
       <c r="O45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P45" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4147,19 +3877,13 @@
       <c r="Y45">
         <v>0</v>
       </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4177,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M46">
         <v>45</v>
@@ -4195,13 +3919,13 @@
         <v>88</v>
       </c>
       <c r="O46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P46" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4215,19 +3939,13 @@
       <c r="Y46">
         <v>0</v>
       </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4245,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M47">
         <v>48</v>
@@ -4263,13 +3981,13 @@
         <v>92</v>
       </c>
       <c r="O47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P47" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="S47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4283,19 +4001,13 @@
       <c r="Y47">
         <v>0</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4313,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M48">
         <v>49</v>
@@ -4331,13 +4043,13 @@
         <v>93</v>
       </c>
       <c r="O48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4351,19 +4063,13 @@
       <c r="Y48">
         <v>0</v>
       </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4381,19 +4087,19 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M49">
         <v>51</v>
@@ -4402,13 +4108,13 @@
         <v>95</v>
       </c>
       <c r="O49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P49" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S49" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -4422,19 +4128,13 @@
       <c r="Y49">
         <v>0</v>
       </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4452,16 +4152,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M50">
         <v>53</v>
@@ -4470,13 +4170,13 @@
         <v>98</v>
       </c>
       <c r="O50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P50" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4490,19 +4190,13 @@
       <c r="Y50">
         <v>0</v>
       </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4520,16 +4214,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M51">
         <v>54</v>
@@ -4538,13 +4232,13 @@
         <v>99</v>
       </c>
       <c r="O51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P51" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -4558,19 +4252,13 @@
       <c r="Y51">
         <v>0</v>
       </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4588,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M52">
         <v>54</v>
@@ -4606,13 +4294,13 @@
         <v>99</v>
       </c>
       <c r="O52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P52" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4626,19 +4314,13 @@
       <c r="Y52">
         <v>0</v>
       </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4656,16 +4338,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M53">
         <v>55</v>
@@ -4674,13 +4356,13 @@
         <v>100</v>
       </c>
       <c r="O53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P53" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -4694,19 +4376,13 @@
       <c r="Y53">
         <v>0</v>
       </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4724,16 +4400,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M54">
         <v>55</v>
@@ -4742,13 +4418,13 @@
         <v>100</v>
       </c>
       <c r="O54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P54" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -4762,19 +4438,13 @@
       <c r="Y54">
         <v>0</v>
       </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4792,16 +4462,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M55">
         <v>55</v>
@@ -4810,13 +4480,13 @@
         <v>100</v>
       </c>
       <c r="O55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P55" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -4830,19 +4500,13 @@
       <c r="Y55">
         <v>0</v>
       </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4860,16 +4524,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M56">
         <v>56</v>
@@ -4878,13 +4542,13 @@
         <v>101</v>
       </c>
       <c r="O56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P56" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -4898,19 +4562,13 @@
       <c r="Y56">
         <v>0</v>
       </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4928,16 +4586,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M57">
         <v>56</v>
@@ -4946,13 +4604,13 @@
         <v>101</v>
       </c>
       <c r="O57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P57" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -4966,19 +4624,13 @@
       <c r="Y57">
         <v>0</v>
       </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4996,16 +4648,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J58" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M58">
         <v>59</v>
@@ -5014,13 +4666,13 @@
         <v>104</v>
       </c>
       <c r="O58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P58" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5034,19 +4686,13 @@
       <c r="Y58">
         <v>0</v>
       </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -5064,16 +4710,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M59">
         <v>63</v>
@@ -5082,13 +4728,13 @@
         <v>110</v>
       </c>
       <c r="O59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P59" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5102,19 +4748,13 @@
       <c r="Y59">
         <v>0</v>
       </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -5132,16 +4772,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M60">
         <v>64</v>
@@ -5150,13 +4790,13 @@
         <v>111</v>
       </c>
       <c r="O60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P60" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="S60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -5170,20 +4810,14 @@
       <c r="Y60">
         <v>0</v>
       </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
         <v>86</v>
       </c>
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
       <c r="C61">
         <v>1</v>
       </c>
@@ -5200,16 +4834,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M61">
         <v>67</v>
@@ -5218,13 +4852,13 @@
         <v>115</v>
       </c>
       <c r="O61" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P61" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="S61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -5238,20 +4872,14 @@
       <c r="Y61">
         <v>0</v>
       </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
         <v>87</v>
       </c>
-      <c r="B62" t="s">
-        <v>89</v>
-      </c>
       <c r="C62">
         <v>0</v>
       </c>
@@ -5268,19 +4896,19 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M62">
         <v>70</v>
@@ -5289,13 +4917,13 @@
         <v>119</v>
       </c>
       <c r="O62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P62" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="S62" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -5307,12 +4935,6 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="219">
   <si>
     <t>p14_nom</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1031,13 +1034,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,13 +1116,16 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1137,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1155,13 +1161,13 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1175,13 +1181,16 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1199,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -1220,13 +1229,13 @@
         <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="S3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1240,13 +1249,16 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1264,16 +1276,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -1282,13 +1294,13 @@
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="S4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1302,13 +1314,16 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1326,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1344,13 +1359,13 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1364,13 +1379,16 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1388,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1409,13 +1427,13 @@
         <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P6" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="S6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1429,13 +1447,16 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1453,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1471,13 +1492,13 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1491,13 +1512,16 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1515,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M8">
         <v>12</v>
@@ -1533,13 +1557,13 @@
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P8" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1553,13 +1577,16 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1577,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M9">
         <v>13</v>
@@ -1595,13 +1622,13 @@
         <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P9" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1615,13 +1642,16 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1639,16 +1669,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M10">
         <v>13</v>
@@ -1657,13 +1687,13 @@
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P10" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1677,13 +1707,16 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1701,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M11">
         <v>14</v>
@@ -1719,13 +1752,13 @@
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P11" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="S11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1739,13 +1772,16 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1763,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M12">
         <v>17</v>
@@ -1784,13 +1820,13 @@
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P12" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1804,13 +1840,16 @@
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1828,16 +1867,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13">
         <v>18</v>
@@ -1846,13 +1885,13 @@
         <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P13" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="S13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1866,13 +1905,16 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1890,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14">
         <v>19</v>
@@ -1908,13 +1950,13 @@
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P14" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1928,13 +1970,16 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1952,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15">
         <v>19</v>
@@ -1970,13 +2015,13 @@
         <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P15" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1990,13 +2035,16 @@
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2014,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16">
         <v>21</v>
@@ -2035,13 +2083,13 @@
         <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2055,13 +2103,16 @@
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2079,16 +2130,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M17">
         <v>21</v>
@@ -2097,13 +2148,13 @@
         <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P17" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2117,13 +2168,16 @@
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2141,16 +2195,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M18">
         <v>22</v>
@@ -2159,13 +2213,13 @@
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P18" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2179,13 +2233,16 @@
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2203,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19">
         <v>22</v>
@@ -2221,13 +2278,13 @@
         <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P19" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2241,13 +2298,16 @@
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2265,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20">
         <v>23</v>
@@ -2283,13 +2343,13 @@
         <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2303,13 +2363,16 @@
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2327,16 +2390,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M21">
         <v>23</v>
@@ -2345,13 +2408,13 @@
         <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2365,13 +2428,16 @@
       <c r="Y21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2389,16 +2455,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M22">
         <v>23</v>
@@ -2407,13 +2473,13 @@
         <v>38</v>
       </c>
       <c r="O22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2427,13 +2493,16 @@
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2451,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M23">
         <v>23</v>
@@ -2469,13 +2538,13 @@
         <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2489,13 +2558,16 @@
       <c r="Y23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2513,16 +2585,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -2531,13 +2603,13 @@
         <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P24" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2551,13 +2623,16 @@
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2575,19 +2650,19 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2596,13 +2671,13 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2616,13 +2691,16 @@
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2640,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26">
         <v>26</v>
@@ -2658,13 +2736,13 @@
         <v>55</v>
       </c>
       <c r="O26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2678,13 +2756,16 @@
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2702,19 +2783,19 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M27">
         <v>27</v>
@@ -2723,13 +2804,13 @@
         <v>56</v>
       </c>
       <c r="O27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2743,13 +2824,16 @@
       <c r="Y27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2767,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M28">
         <v>28</v>
@@ -2785,13 +2869,13 @@
         <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2805,13 +2889,16 @@
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2829,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M29">
         <v>29</v>
@@ -2847,13 +2934,13 @@
         <v>58</v>
       </c>
       <c r="O29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P29" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2867,13 +2954,16 @@
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2891,16 +2981,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M30">
         <v>30</v>
@@ -2909,13 +2999,13 @@
         <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P30" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2929,13 +3019,16 @@
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2953,16 +3046,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31">
         <v>30</v>
@@ -2971,13 +3064,13 @@
         <v>59</v>
       </c>
       <c r="O31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P31" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2991,13 +3084,16 @@
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3015,16 +3111,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -3033,13 +3129,13 @@
         <v>59</v>
       </c>
       <c r="O32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3053,13 +3149,16 @@
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3077,16 +3176,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M33">
         <v>32</v>
@@ -3095,13 +3194,13 @@
         <v>61</v>
       </c>
       <c r="O33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3115,13 +3214,16 @@
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3139,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M34">
         <v>33</v>
@@ -3160,13 +3262,13 @@
         <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P34" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3180,13 +3282,16 @@
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3204,19 +3309,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -3225,13 +3330,13 @@
         <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3245,13 +3350,16 @@
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3269,19 +3377,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M36">
         <v>33</v>
@@ -3290,13 +3398,13 @@
         <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3310,13 +3418,16 @@
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3334,16 +3445,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M37">
         <v>34</v>
@@ -3352,13 +3463,13 @@
         <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3372,13 +3483,16 @@
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3396,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -3414,13 +3528,13 @@
         <v>77</v>
       </c>
       <c r="O38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P38" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3434,13 +3548,16 @@
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3458,19 +3575,19 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -3479,13 +3596,13 @@
         <v>78</v>
       </c>
       <c r="O39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P39" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3499,13 +3616,16 @@
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3523,16 +3643,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -3541,13 +3661,13 @@
         <v>80</v>
       </c>
       <c r="O40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P40" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="S40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3561,13 +3681,16 @@
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3585,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -3606,13 +3729,13 @@
         <v>81</v>
       </c>
       <c r="O41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P41" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -3626,13 +3749,16 @@
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3650,16 +3776,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -3668,13 +3794,13 @@
         <v>82</v>
       </c>
       <c r="O42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P42" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -3688,13 +3814,16 @@
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3712,16 +3841,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M43">
         <v>42</v>
@@ -3730,13 +3859,13 @@
         <v>84</v>
       </c>
       <c r="O43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P43" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -3750,13 +3879,16 @@
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3774,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M44">
         <v>44</v>
@@ -3792,13 +3924,13 @@
         <v>87</v>
       </c>
       <c r="O44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P44" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3812,13 +3944,16 @@
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3836,19 +3971,19 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M45">
         <v>45</v>
@@ -3857,13 +3992,13 @@
         <v>88</v>
       </c>
       <c r="O45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P45" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -3877,13 +4012,16 @@
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3901,16 +4039,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M46">
         <v>45</v>
@@ -3919,13 +4057,13 @@
         <v>88</v>
       </c>
       <c r="O46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P46" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -3939,13 +4077,16 @@
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3963,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M47">
         <v>48</v>
@@ -3981,13 +4122,13 @@
         <v>92</v>
       </c>
       <c r="O47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P47" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="S47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4001,13 +4142,16 @@
       <c r="Y47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4025,16 +4169,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M48">
         <v>49</v>
@@ -4043,13 +4187,13 @@
         <v>93</v>
       </c>
       <c r="O48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4063,13 +4207,16 @@
       <c r="Y48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4087,19 +4234,19 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M49">
         <v>51</v>
@@ -4108,13 +4255,13 @@
         <v>95</v>
       </c>
       <c r="O49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P49" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -4128,13 +4275,16 @@
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4152,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M50">
         <v>53</v>
@@ -4170,13 +4320,13 @@
         <v>98</v>
       </c>
       <c r="O50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P50" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4190,13 +4340,16 @@
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4214,16 +4367,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M51">
         <v>54</v>
@@ -4232,13 +4385,13 @@
         <v>99</v>
       </c>
       <c r="O51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P51" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -4252,13 +4405,16 @@
       <c r="Y51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4276,16 +4432,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M52">
         <v>54</v>
@@ -4294,13 +4450,13 @@
         <v>99</v>
       </c>
       <c r="O52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P52" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4314,13 +4470,16 @@
       <c r="Y52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4338,16 +4497,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M53">
         <v>55</v>
@@ -4356,13 +4515,13 @@
         <v>100</v>
       </c>
       <c r="O53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P53" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -4376,13 +4535,16 @@
       <c r="Y53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4400,16 +4562,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M54">
         <v>55</v>
@@ -4418,13 +4580,13 @@
         <v>100</v>
       </c>
       <c r="O54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P54" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -4438,13 +4600,16 @@
       <c r="Y54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4462,16 +4627,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M55">
         <v>55</v>
@@ -4480,13 +4645,13 @@
         <v>100</v>
       </c>
       <c r="O55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P55" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -4500,13 +4665,16 @@
       <c r="Y55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4524,16 +4692,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M56">
         <v>56</v>
@@ -4542,13 +4710,13 @@
         <v>101</v>
       </c>
       <c r="O56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P56" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -4562,13 +4730,16 @@
       <c r="Y56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4586,16 +4757,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M57">
         <v>56</v>
@@ -4604,13 +4775,13 @@
         <v>101</v>
       </c>
       <c r="O57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P57" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -4624,13 +4795,16 @@
       <c r="Y57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4648,16 +4822,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M58">
         <v>59</v>
@@ -4666,13 +4840,13 @@
         <v>104</v>
       </c>
       <c r="O58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P58" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -4686,13 +4860,16 @@
       <c r="Y58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4710,16 +4887,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M59">
         <v>63</v>
@@ -4728,13 +4905,13 @@
         <v>110</v>
       </c>
       <c r="O59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P59" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -4748,13 +4925,16 @@
       <c r="Y59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4772,16 +4952,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M60">
         <v>64</v>
@@ -4790,13 +4970,13 @@
         <v>111</v>
       </c>
       <c r="O60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P60" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="S60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -4810,13 +4990,16 @@
       <c r="Y60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4834,16 +5017,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M61">
         <v>67</v>
@@ -4852,13 +5035,13 @@
         <v>115</v>
       </c>
       <c r="O61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P61" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="S61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -4872,13 +5055,16 @@
       <c r="Y61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4896,19 +5082,19 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M62">
         <v>70</v>
@@ -4917,13 +5103,13 @@
         <v>119</v>
       </c>
       <c r="O62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P62" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="S62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -4935,6 +5121,9 @@
         <v>0</v>
       </c>
       <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -3537,7 +3537,7 @@
         <v>217</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:26">

--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -3933,19 +3933,19 @@
         <v>217</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="45" spans="1:26">

--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -3933,19 +3933,19 @@
         <v>217</v>
       </c>
       <c r="V44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26">

--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Jose\Downloads\bucles\files\separadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A1E1A0-2252-4684-9294-3FE8535D6992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66AC038-12EA-4249-AA79-411B596E0E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="215">
   <si>
     <t>p14_nom</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1036,15 +1033,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,17 +1108,14 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -1138,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1156,57 +1150,54 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="2">
         <v>45013.731631944444</v>
       </c>
       <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -1215,54 +1206,51 @@
         <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2">
         <v>45021.788078703707</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -1271,54 +1259,51 @@
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="S4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V4">
         <v>1</v>
       </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
         <v>40</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1327,57 +1312,54 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
         <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1386,54 +1368,51 @@
         <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P6" s="2">
         <v>45028.887245370373</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
         <v>49</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1442,54 +1421,51 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P7" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8">
         <v>12</v>
@@ -1498,54 +1474,51 @@
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="S8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9">
         <v>13</v>
@@ -1554,54 +1527,51 @@
         <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="S9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
         <v>60</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10">
         <v>13</v>
@@ -1610,54 +1580,51 @@
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P10" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11">
         <v>14</v>
@@ -1666,57 +1633,54 @@
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="S11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
         <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12">
         <v>17</v>
@@ -1725,54 +1689,51 @@
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="S12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>71</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13">
         <v>18</v>
@@ -1781,54 +1742,51 @@
         <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="2">
         <v>45030.793912037043</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
         <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>74</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14">
         <v>19</v>
@@ -1837,54 +1795,51 @@
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
         <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" t="s">
-        <v>77</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15">
         <v>19</v>
@@ -1893,57 +1848,54 @@
         <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="S15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>78</v>
       </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
         <v>79</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>80</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16">
         <v>21</v>
@@ -1952,54 +1904,51 @@
         <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="S16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V16">
         <v>1</v>
       </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>83</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17">
         <v>21</v>
@@ -2008,54 +1957,51 @@
         <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P17" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="S17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V17">
         <v>0.5</v>
       </c>
-      <c r="W17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" t="s">
-        <v>85</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18">
         <v>22</v>
@@ -2064,54 +2010,51 @@
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="S18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
         <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" t="s">
-        <v>88</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19">
         <v>22</v>
@@ -2120,54 +2063,51 @@
         <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P19" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="S19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
         <v>89</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" t="s">
-        <v>90</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20">
         <v>23</v>
@@ -2176,54 +2116,51 @@
         <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P20" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="S20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" t="s">
-        <v>93</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21">
         <v>23</v>
@@ -2232,54 +2169,51 @@
         <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P21" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="S21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
         <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" t="s">
-        <v>95</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22">
         <v>23</v>
@@ -2288,54 +2222,51 @@
         <v>38</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P22" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" t="s">
-        <v>97</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M23">
         <v>23</v>
@@ -2344,54 +2275,51 @@
         <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P23" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="S23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
         <v>98</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" t="s">
-        <v>99</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -2400,57 +2328,54 @@
         <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P24" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="S24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
         <v>100</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>101</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
         <v>102</v>
       </c>
-      <c r="I25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" t="s">
-        <v>103</v>
-      </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2459,54 +2384,51 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P25" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>106</v>
-      </c>
-      <c r="J26" t="s">
-        <v>107</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M26">
         <v>26</v>
@@ -2515,57 +2437,54 @@
         <v>55</v>
       </c>
       <c r="O26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P26" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="S26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
         <v>109</v>
       </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
         <v>110</v>
       </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" t="s">
-        <v>111</v>
-      </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M27">
         <v>27</v>
@@ -2574,54 +2493,51 @@
         <v>56</v>
       </c>
       <c r="O27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P27" s="2">
         <v>45034.645821759259</v>
       </c>
       <c r="S27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
         <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" t="s">
-        <v>114</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28">
         <v>28</v>
@@ -2630,54 +2546,51 @@
         <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
         <v>116</v>
       </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" t="s">
-        <v>117</v>
-      </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M29">
         <v>29</v>
@@ -2686,54 +2599,51 @@
         <v>58</v>
       </c>
       <c r="O29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P29" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="S29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
         <v>119</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" t="s">
-        <v>120</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M30">
         <v>30</v>
@@ -2742,54 +2652,51 @@
         <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P30" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="S30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
         <v>122</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" t="s">
-        <v>123</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31">
         <v>30</v>
@@ -2798,54 +2705,51 @@
         <v>59</v>
       </c>
       <c r="O31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P31" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="S31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
         <v>124</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" t="s">
-        <v>125</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -2854,54 +2758,51 @@
         <v>59</v>
       </c>
       <c r="O32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P32" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="S32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
         <v>126</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" t="s">
-        <v>127</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M33">
         <v>32</v>
@@ -2910,57 +2811,54 @@
         <v>61</v>
       </c>
       <c r="O33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P33" s="2">
         <v>45034.945092592592</v>
       </c>
       <c r="S33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>129</v>
       </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
         <v>130</v>
-      </c>
-      <c r="I34" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" t="s">
-        <v>131</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M34">
         <v>33</v>
@@ -2969,57 +2867,54 @@
         <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P34" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="S34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
         <v>133</v>
-      </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" t="s">
-        <v>134</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -3028,57 +2923,54 @@
         <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P35" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="S35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
         <v>135</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" t="s">
-        <v>136</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M36">
         <v>33</v>
@@ -3087,54 +2979,51 @@
         <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P36" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="S36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
         <v>137</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" t="s">
-        <v>138</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M37">
         <v>34</v>
@@ -3143,54 +3032,51 @@
         <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P37" s="2">
         <v>45035.836608796293</v>
       </c>
       <c r="S37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
         <v>140</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" t="s">
-        <v>141</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -3199,57 +3085,54 @@
         <v>77</v>
       </c>
       <c r="O38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P38" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="S38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V38">
         <v>0.5</v>
       </c>
-      <c r="W38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>143</v>
       </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
         <v>144</v>
-      </c>
-      <c r="I39" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" t="s">
-        <v>145</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -3258,54 +3141,51 @@
         <v>78</v>
       </c>
       <c r="O39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P39" s="2">
         <v>45041.153495370367</v>
       </c>
       <c r="S39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
         <v>147</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" t="s">
-        <v>148</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -3314,57 +3194,54 @@
         <v>80</v>
       </c>
       <c r="O40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P40" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="S40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>150</v>
       </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
         <v>151</v>
-      </c>
-      <c r="I41" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" t="s">
-        <v>152</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -3373,54 +3250,51 @@
         <v>81</v>
       </c>
       <c r="O41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P41" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="S41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
         <v>154</v>
-      </c>
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" t="s">
-        <v>155</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -3429,54 +3303,51 @@
         <v>82</v>
       </c>
       <c r="O42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P42" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="S42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
         <v>157</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" t="s">
-        <v>158</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M43">
         <v>42</v>
@@ -3485,54 +3356,51 @@
         <v>84</v>
       </c>
       <c r="O43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P43" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="S43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
         <v>160</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" t="s">
-        <v>161</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M44">
         <v>44</v>
@@ -3541,57 +3409,54 @@
         <v>87</v>
       </c>
       <c r="O44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P44" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="S44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V44">
         <v>1.4</v>
       </c>
-      <c r="W44">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
         <v>163</v>
       </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
         <v>164</v>
-      </c>
-      <c r="I45" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" t="s">
-        <v>165</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M45">
         <v>45</v>
@@ -3600,54 +3465,51 @@
         <v>88</v>
       </c>
       <c r="O45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P45" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
         <v>167</v>
-      </c>
-      <c r="B46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" t="s">
-        <v>168</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M46">
         <v>45</v>
@@ -3656,54 +3518,51 @@
         <v>88</v>
       </c>
       <c r="O46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P46" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
         <v>169</v>
-      </c>
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" t="s">
-        <v>170</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M47">
         <v>48</v>
@@ -3712,54 +3571,51 @@
         <v>92</v>
       </c>
       <c r="O47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P47" s="2">
         <v>45044.001712962963</v>
       </c>
       <c r="S47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
         <v>172</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" t="s">
-        <v>173</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M48">
         <v>49</v>
@@ -3768,57 +3624,54 @@
         <v>93</v>
       </c>
       <c r="O48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P48" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="S48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
         <v>175</v>
       </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
         <v>176</v>
-      </c>
-      <c r="I49" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" t="s">
-        <v>177</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M49">
         <v>51</v>
@@ -3827,54 +3680,51 @@
         <v>95</v>
       </c>
       <c r="O49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P49" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="S49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
         <v>179</v>
-      </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" t="s">
-        <v>180</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M50">
         <v>53</v>
@@ -3883,54 +3733,51 @@
         <v>98</v>
       </c>
       <c r="O50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P50" s="2">
         <v>45044.941967592589</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
         <v>182</v>
-      </c>
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>25</v>
-      </c>
-      <c r="J51" t="s">
-        <v>183</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M51">
         <v>54</v>
@@ -3939,54 +3786,51 @@
         <v>99</v>
       </c>
       <c r="O51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P51" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="S51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
         <v>185</v>
-      </c>
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>25</v>
-      </c>
-      <c r="J52" t="s">
-        <v>186</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M52">
         <v>54</v>
@@ -3995,54 +3839,51 @@
         <v>99</v>
       </c>
       <c r="O52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P52" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="S52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
         <v>187</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>25</v>
-      </c>
-      <c r="J53" t="s">
-        <v>188</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M53">
         <v>55</v>
@@ -4051,54 +3892,51 @@
         <v>100</v>
       </c>
       <c r="O53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P53" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
         <v>190</v>
-      </c>
-      <c r="B54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" t="s">
-        <v>191</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M54">
         <v>55</v>
@@ -4107,54 +3945,51 @@
         <v>100</v>
       </c>
       <c r="O54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P54" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" t="s">
         <v>192</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
         <v>193</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" t="s">
-        <v>194</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M55">
         <v>55</v>
@@ -4163,54 +3998,51 @@
         <v>100</v>
       </c>
       <c r="O55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P55" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
         <v>195</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" t="s">
-        <v>196</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M56">
         <v>56</v>
@@ -4219,54 +4051,51 @@
         <v>101</v>
       </c>
       <c r="O56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P56" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
         <v>198</v>
-      </c>
-      <c r="B57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57" t="s">
-        <v>199</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M57">
         <v>56</v>
@@ -4275,54 +4104,51 @@
         <v>101</v>
       </c>
       <c r="O57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P57" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
         <v>200</v>
-      </c>
-      <c r="B58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>25</v>
-      </c>
-      <c r="J58" t="s">
-        <v>201</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M58">
         <v>59</v>
@@ -4331,54 +4157,51 @@
         <v>104</v>
       </c>
       <c r="O58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P58" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="S58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
         <v>203</v>
-      </c>
-      <c r="B59" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>25</v>
-      </c>
-      <c r="J59" t="s">
-        <v>204</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M59">
         <v>63</v>
@@ -4387,54 +4210,51 @@
         <v>110</v>
       </c>
       <c r="O59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P59" s="2">
         <v>45045.208935185183</v>
       </c>
       <c r="S59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
         <v>206</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>25</v>
-      </c>
-      <c r="J60" t="s">
-        <v>207</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M60">
         <v>64</v>
@@ -4443,54 +4263,51 @@
         <v>111</v>
       </c>
       <c r="O60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P60" s="2">
         <v>45045.679583333331</v>
       </c>
       <c r="S60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" t="s">
         <v>209</v>
-      </c>
-      <c r="B61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J61" t="s">
-        <v>210</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M61">
         <v>67</v>
@@ -4499,57 +4316,54 @@
         <v>115</v>
       </c>
       <c r="O61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P61" s="2">
         <v>45048.691724537042</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
         <v>212</v>
       </c>
-      <c r="B62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" t="s">
         <v>213</v>
-      </c>
-      <c r="I62" t="s">
-        <v>25</v>
-      </c>
-      <c r="J62" t="s">
-        <v>214</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M62">
         <v>70</v>
@@ -4558,18 +4372,15 @@
         <v>119</v>
       </c>
       <c r="O62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P62" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="S62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -2516,7 +2516,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">

--- a/files/separadas/repeat_p14.xlsx
+++ b/files/separadas/repeat_p14.xlsx
@@ -3544,7 +3544,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="43">
@@ -4200,7 +4200,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4272,7 +4272,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4704,7 +4704,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="59">
@@ -4776,7 +4776,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="60">
